--- a/src/main/resources/MobileNo.xlsx
+++ b/src/main/resources/MobileNo.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,47 +375,47 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9309167073</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9168163168</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9423265696</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9309167073</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9423265696</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>9423265696</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9423265696</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9423265696</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9309167073</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
